--- a/analysis/data/resamples_notes.xlsx
+++ b/analysis/data/resamples_notes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30480" windowHeight="16960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="resample_table_samples" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>sample</t>
   </si>
@@ -226,16 +226,38 @@
   </si>
   <si>
     <t>sediment already washed</t>
+  </si>
+  <si>
+    <t>14609</t>
+  </si>
+  <si>
+    <t>BM.1959,638</t>
+  </si>
+  <si>
+    <t>3 speces, app. 11 g, 9 g, 10 g</t>
+  </si>
+  <si>
+    <t>BM.1959,638, No.6, 08/09/1957, 85 15  N; 167 54  W; Arctic Sea, Taken from drifting ice</t>
+  </si>
+  <si>
+    <t>32657</t>
+  </si>
+  <si>
+    <t>5 t, 7 slds, 1 box</t>
+  </si>
+  <si>
+    <t>158, HMS Challenger, 07/03/1974, 50 1 0 S; 123 4 0 E; Antarctic Indian Ocean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +295,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,7 +345,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,8 +391,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -384,16 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -407,9 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -449,8 +473,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -473,6 +511,9 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -495,7 +536,11 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="47"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -824,18 +869,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="28" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="5"/>
     <col min="7" max="7" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -846,25 +891,30 @@
     <col min="13" max="13" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="5"/>
     <col min="15" max="15" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="5"/>
+    <col min="16" max="16" width="10.83203125" style="34"/>
     <col min="17" max="17" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="5"/>
+    <col min="21" max="21" width="10.83203125" style="5"/>
+    <col min="22" max="22" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="66.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1">
+    <row r="1" spans="1:25" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -900,7 +950,7 @@
       <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -919,17 +969,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="8">
+    <row r="2" spans="1:25">
+      <c r="A2" s="7">
         <v>1959638</v>
       </c>
       <c r="B2" s="4">
         <v>66</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>4</v>
       </c>
       <c r="G2" s="4">
@@ -944,10 +994,10 @@
       <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>1038231.48356325</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <f t="shared" ref="L2:L11" si="0">K2/1000</f>
         <v>1038.2314835632501</v>
       </c>
@@ -960,10 +1010,10 @@
       <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="31">
         <v>19609</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="12">
         <v>1959638</v>
       </c>
       <c r="R2" s="4">
@@ -974,18 +1024,30 @@
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>0.187</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
       <c r="G3" s="4">
@@ -1000,10 +1062,10 @@
       <c r="J3" s="4">
         <v>7</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>250110.04895282999</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <f t="shared" si="0"/>
         <v>250.11004895283</v>
       </c>
@@ -1016,7 +1078,7 @@
       <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1030,18 +1092,28 @@
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="4">
         <v>55</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>2.7280000000000002</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
       <c r="G4" s="4">
@@ -1056,10 +1128,10 @@
       <c r="J4" s="4">
         <v>20</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>202350.30130197201</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <f t="shared" si="0"/>
         <v>202.350301301972</v>
       </c>
@@ -1072,7 +1144,7 @@
       <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="31" t="s">
         <v>47</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1087,17 +1159,17 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4">
         <v>46</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>1.984</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>7</v>
       </c>
       <c r="G5" s="4">
@@ -1112,10 +1184,10 @@
       <c r="J5" s="4">
         <v>26</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>328480.86531602399</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>328.48086531602399</v>
       </c>
@@ -1128,7 +1200,7 @@
       <c r="O5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="31" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -1143,17 +1215,17 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <v>27</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>1.23</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="G6" s="4">
@@ -1168,10 +1240,10 @@
       <c r="J6" s="4">
         <v>21</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>161121.08175664401</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>161.121081756644</v>
       </c>
@@ -1184,7 +1256,7 @@
       <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="31" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -1199,17 +1271,17 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>25</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>9.35</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>7</v>
       </c>
       <c r="G7" s="4">
@@ -1224,10 +1296,10 @@
       <c r="J7" s="4">
         <v>20</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>332708.36079180503</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>332.70836079180503</v>
       </c>
@@ -1240,7 +1312,7 @@
       <c r="O7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -1255,17 +1327,17 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
         <v>31</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>2.4220000000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
       <c r="G8" s="4">
@@ -1280,10 +1352,10 @@
       <c r="J8" s="4">
         <v>17</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>281639.43220388802</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>281.63943220388802</v>
       </c>
@@ -1296,7 +1368,7 @@
       <c r="O8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="31" t="s">
         <v>26</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -1311,17 +1383,17 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>20</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>1.49</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1339,10 +1411,10 @@
       <c r="J9" s="4">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>15415.4023349409</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>15.4154023349409</v>
       </c>
@@ -1355,7 +1427,7 @@
       <c r="O9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -1370,17 +1442,17 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4">
         <v>44</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>2.86</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
       <c r="G10" s="4">
@@ -1395,10 +1467,10 @@
       <c r="J10" s="4">
         <v>19</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>261129.59950577701</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <f t="shared" si="0"/>
         <v>261.12959950577698</v>
       </c>
@@ -1411,8 +1483,8 @@
       <c r="O10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="7">
-        <v>37203</v>
+      <c r="P10" s="31">
+        <v>678</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>38</v>
@@ -1426,17 +1498,17 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>1.51</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1454,10 +1526,10 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>373734.38656204799</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <f t="shared" si="0"/>
         <v>373.73438656204797</v>
       </c>
@@ -1470,7 +1542,7 @@
       <c r="O11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="31" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -1485,194 +1557,194 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="13" spans="1:21" s="12" customFormat="1">
-      <c r="A13" s="11">
+    <row r="13" spans="1:25" s="10" customFormat="1">
+      <c r="A13" s="9">
         <v>1963923</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.72</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>3</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
         <v>-48.475000000000001</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>-113.28333000000001</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="32">
         <v>19699</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>1963923</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>16648</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <v>-2677</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <v>0</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
+    <row r="14" spans="1:25" s="10" customFormat="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>29</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>1.02</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="G14" s="9">
+      <c r="D14" s="9"/>
+      <c r="G14" s="8">
         <v>8</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8">
         <v>-18.33333</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>-79.341669999999993</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="32">
         <v>19746</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8">
         <v>16650</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>-3157</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <v>8</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="12" customFormat="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9">
+    <row r="15" spans="1:25" s="10" customFormat="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
         <v>33</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="27"/>
-      <c r="G15" s="9">
+      <c r="C15" s="20"/>
+      <c r="D15" s="24"/>
+      <c r="G15" s="8">
         <v>8</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
         <v>-14.73333</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>-112.1</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="32">
         <v>19765</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8">
         <v>16653</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <v>-3034</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <v>12</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:25" s="14" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>35</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>1.907</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="G16" s="15">
+      <c r="D16" s="25"/>
+      <c r="G16" s="13">
         <v>8</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
         <v>-13.171670000000001</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="13">
         <v>-175.68833000000001</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="13">
         <v>36704</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="13">
         <v>-3952</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>1963916</v>
       </c>
       <c r="B17" s="4">
         <v>36</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>0.371</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="G17" s="4">
         <v>7</v>
       </c>
@@ -1690,10 +1762,10 @@
       <c r="O17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="31">
         <v>17928</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>1963916</v>
       </c>
       <c r="R17" s="4">
@@ -1709,92 +1781,92 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="17" customFormat="1">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:21" s="14" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>37</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>2.58</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="G18" s="15">
+      <c r="D18" s="25"/>
+      <c r="G18" s="13">
         <v>9</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
         <v>-12.116669999999999</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="13">
         <v>64.125</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="33">
         <v>37102</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="13">
         <v>37190</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="13">
         <v>-3322</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-    </row>
-    <row r="19" spans="1:21" s="17" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="1:21" s="14" customFormat="1">
+      <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>39</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="17" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>9</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
         <v>-10.21472</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="13">
         <v>178.01444000000001</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="13">
         <v>36361</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="13">
         <v>-4844</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="4" t="s">
@@ -1803,10 +1875,10 @@
       <c r="B20" s="4">
         <v>41</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>1.63</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="G20" s="4">
         <v>7</v>
       </c>
@@ -1824,7 +1896,7 @@
       <c r="O20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="31">
         <v>20211</v>
       </c>
       <c r="Q20" s="4" t="s">
@@ -1843,92 +1915,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="17" customFormat="1">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:21" s="14" customFormat="1">
+      <c r="A21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>43</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>8</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13">
         <v>-8.4166699999999999</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="13">
         <v>65.633330000000001</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="16">
-        <v>37100</v>
-      </c>
-      <c r="Q21" s="15" t="s">
+      <c r="P21" s="33">
+        <v>575</v>
+      </c>
+      <c r="Q21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="13">
         <v>37130</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="13">
         <v>-3694</v>
       </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="1:21" s="17" customFormat="1">
-      <c r="A22" s="15" t="s">
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+    </row>
+    <row r="22" spans="1:21" s="14" customFormat="1">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>45</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="G22" s="15">
+      <c r="D22" s="25"/>
+      <c r="G22" s="13">
         <v>9</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13">
         <v>-2.70167</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="13">
         <v>67.383330000000001</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="16">
-        <v>37206</v>
-      </c>
-      <c r="Q22" s="15" t="s">
+      <c r="P22" s="33">
+        <v>681</v>
+      </c>
+      <c r="Q22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="13">
         <v>37149</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="13">
         <v>-3594</v>
       </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="4" t="s">
@@ -1937,8 +2009,8 @@
       <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +2031,7 @@
       <c r="O23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="31" t="s">
         <v>43</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -1981,8 +2053,8 @@
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30">
+      <c r="C24" s="22"/>
+      <c r="D24" s="27">
         <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2005,7 +2077,7 @@
       <c r="O24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="31" t="s">
         <v>43</v>
       </c>
       <c r="Q24" s="4" t="s">
@@ -2020,50 +2092,50 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" s="17" customFormat="1">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:21" s="14" customFormat="1">
+      <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>48</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>2.8140000000000001</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <v>5</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>9</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
         <v>1.21333</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="13">
         <v>-161.83667</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="13">
         <v>36683</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="13">
         <v>-4634</v>
       </c>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="4" t="s">
@@ -2072,8 +2144,8 @@
       <c r="B26" s="4">
         <v>56</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="5" t="s">
         <v>66</v>
       </c>
@@ -2094,7 +2166,7 @@
       <c r="O26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="4"/>
+      <c r="P26" s="31"/>
       <c r="Q26" s="4" t="s">
         <v>49</v>
       </c>
@@ -2111,50 +2183,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="12" customFormat="1">
-      <c r="A27" s="11">
+    <row r="27" spans="1:21" s="10" customFormat="1">
+      <c r="A27" s="9">
         <v>1963932</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>61</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="17">
         <v>1.22</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="G27" s="9">
+      <c r="D27" s="9"/>
+      <c r="G27" s="8">
         <v>1</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
         <v>51.516669999999998</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <v>-144.65</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="32">
         <v>19581</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="9">
         <v>1963932</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="8">
         <v>16658</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <v>-4054</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <v>7</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <v>10</v>
       </c>
     </row>
